--- a/Stores/StoreList.xlsx
+++ b/Stores/StoreList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>No.</t>
   </si>
@@ -67,14 +67,58 @@
   </si>
   <si>
     <t>Cháo bò viên đường Lê Hồng Phong, Quận 5</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Thông Tin</t>
+  </si>
+  <si>
+    <t>Thực Đơn</t>
+  </si>
+  <si>
+    <t>Hình Ảnh</t>
+  </si>
+  <si>
+    <t>Trạng Thái</t>
+  </si>
+  <si>
+    <t>2 Đinh Tiên Hoàng, 1, Binh Thanh District, Ho Chi Minh City, Vietnam</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Chưa</t>
+  </si>
+  <si>
+    <t>Prod Site</t>
+  </si>
+  <si>
+    <t>Admin Site</t>
+  </si>
+  <si>
+    <t>014 chung cư Trần Văn Kiểu, P.14, Q.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,13 +146,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,7 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,33 +458,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -444,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -452,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -460,7 +546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -468,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -476,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -484,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -492,15 +578,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -508,7 +609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -516,7 +617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -526,29 +627,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="71" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -556,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -564,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -572,7 +674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -586,12 +688,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stores/StoreList.xlsx
+++ b/Stores/StoreList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>No.</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>014 chung cư Trần Văn Kiểu, P.14, Q.10</t>
+  </si>
+  <si>
+    <t>Lẫu cá kèo Rau Đắng Nguyễn Thị Diệu</t>
+  </si>
+  <si>
+    <t>Cơm tấm Ba Ghiền, Phú Nhuận</t>
   </si>
 </sst>
 </file>
@@ -126,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +172,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,7 +555,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -623,6 +636,22 @@
       </c>
       <c r="B13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Stores/StoreList.xlsx
+++ b/Stores/StoreList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>No.</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Cơm tấm Ba Ghiền, Phú Nhuận</t>
+  </si>
+  <si>
+    <t>Bún chả cá Đà Nẵng đường Trần Hưng Đạo, Tân Phú</t>
+  </si>
+  <si>
+    <t>Hú Tiếu Nam Vang, Bàu Cát, đối diện cây xăng, Tân Phú</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,6 +658,22 @@
       </c>
       <c r="B15" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Stores/StoreList.xlsx
+++ b/Stores/StoreList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Hú Tiếu Nam Vang, Bàu Cát, đối diện cây xăng, Tân Phú</t>
+  </si>
+  <si>
+    <t>4 Nguyễn Thị Diệu, Phườn 6, Quận 3, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Cua Cà Mau Cây Sứ Quán Phong Cua</t>
+  </si>
+  <si>
+    <t>1019A Bình Quới, Phường 28, Quận Bình Thạnh, Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,7 +498,7 @@
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
@@ -644,12 +653,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -668,12 +692,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Stores/StoreList.xlsx
+++ b/Stores/StoreList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Bánh canh ghẹ cầu Bông</t>
   </si>
   <si>
-    <t>Sinh tố Lý Chính Thắng</t>
-  </si>
-  <si>
     <t>Bún riêu Nguyễn Đình Chiểu</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Bánh tráng trộn gần Hồ Con Rùa</t>
   </si>
   <si>
-    <t>Miến gà Kỳ Đồng</t>
-  </si>
-  <si>
     <t>Cháo bò viên đường Lê Hồng Phong, Quận 5</t>
   </si>
   <si>
@@ -96,24 +90,12 @@
     <t>Chưa</t>
   </si>
   <si>
-    <t>Prod Site</t>
-  </si>
-  <si>
-    <t>Admin Site</t>
-  </si>
-  <si>
     <t>014 chung cư Trần Văn Kiểu, P.14, Q.10</t>
   </si>
   <si>
     <t>Lẫu cá kèo Rau Đắng Nguyễn Thị Diệu</t>
   </si>
   <si>
-    <t>Cơm tấm Ba Ghiền, Phú Nhuận</t>
-  </si>
-  <si>
-    <t>Bún chả cá Đà Nẵng đường Trần Hưng Đạo, Tân Phú</t>
-  </si>
-  <si>
     <t>Hú Tiếu Nam Vang, Bàu Cát, đối diện cây xăng, Tân Phú</t>
   </si>
   <si>
@@ -124,6 +106,21 @@
   </si>
   <si>
     <t>1019A Bình Quới, Phường 28, Quận Bình Thạnh, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Cơm tấm Ba Ghiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84 Đặng Văn Ngữ, Phú Nhuận</t>
+  </si>
+  <si>
+    <t>Bún chả cá Đà Nẵng TY</t>
+  </si>
+  <si>
+    <t>69 Trần Hưng Đạo, Tân Phú</t>
   </si>
 </sst>
 </file>
@@ -487,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,22 +506,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
@@ -535,19 +532,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -557,12 +554,24 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -570,7 +579,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -605,28 +614,28 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -637,12 +646,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -650,77 +674,52 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -761,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
@@ -769,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -777,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Stores/StoreList.xlsx
+++ b/Stores/StoreList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>69 Trần Hưng Đạo, Tân Phú</t>
+  </si>
+  <si>
+    <t>Hẻm 404 Nguyễn Đình Chiểu</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,6 +557,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
@@ -678,6 +684,15 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
